--- a/1_semester/Moduls/Приложение/Equipment.xlsx
+++ b/1_semester/Moduls/Приложение/Equipment.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ВКИ\VKI_Course3\1_semester\Moduls\Приложение\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09FBBCA-F09B-427C-BE8D-E4194D7EBC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="0" windowWidth="14616" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Equipment" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
@@ -126,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -263,7 +257,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -315,7 +309,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -509,34 +503,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50ED796-2CDF-4060-B08A-A1370ECE75EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="2.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="5" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="8.75" customWidth="1"/>
-    <col min="9" max="9" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.8984375" customWidth="1"/>
+    <col min="4" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" customWidth="1"/>
+    <col min="7" max="7" width="8.69921875" customWidth="1"/>
+    <col min="9" max="9" width="8.8984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="104.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="47.25">
+    <row r="1" spans="1:12" ht="46.8">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -574,7 +568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="63">
+    <row r="2" spans="1:12" ht="62.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -612,7 +606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="78.75">
+    <row r="3" spans="1:12" ht="78">
       <c r="A3">
         <v>2</v>
       </c>
@@ -650,7 +644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="75.75">
+    <row r="4" spans="1:12" ht="75.599999999999994">
       <c r="A4">
         <v>3</v>
       </c>
@@ -688,7 +682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="63">
+    <row r="5" spans="1:12" ht="62.4">
       <c r="A5">
         <v>4</v>
       </c>

--- a/1_semester/Moduls/Приложение/Equipment.xlsx
+++ b/1_semester/Moduls/Приложение/Equipment.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="-108" yWindow="0" windowWidth="14616" windowHeight="13176"/>
   </bookViews>
   <sheets>
-    <sheet name="Equipment" sheetId="2" r:id="rId1"/>
+    <sheet name="Product" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -503,7 +503,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
